--- a/test2021/informed/GP2021_test_informed.xlsx
+++ b/test2021/informed/GP2021_test_informed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthacsik/git/GPSelector/test2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthacsik/git/GPSelector/test2021/informed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0D5FF1-17CC-2C48-B45C-DB0C4410F4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929D5CA1-7C90-5949-AC44-E0AD48B5F2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27000" yWindow="960" windowWidth="27640" windowHeight="16540" activeTab="2" xr2:uid="{55AA6B31-AA87-6E41-9888-94D527E50DD3}"/>
+    <workbookView xWindow="-22260" yWindow="480" windowWidth="27640" windowHeight="16540" activeTab="4" xr2:uid="{55AA6B31-AA87-6E41-9888-94D527E50DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Current proposal submitters" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="111">
   <si>
     <t xml:space="preserve">Last Name </t>
   </si>
@@ -398,6 +398,18 @@
   </si>
   <si>
     <t>12% got their second choice</t>
+  </si>
+  <si>
+    <t>automated project breakdowns</t>
+  </si>
+  <si>
+    <t>adjusted project breakdowns:</t>
+  </si>
+  <si>
+    <t>? students would need to be moved</t>
+  </si>
+  <si>
+    <t>? projects would be dropped</t>
   </si>
 </sst>
 </file>
@@ -3401,10 +3413,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE55B6D-EF0F-F44B-BC64-15D67DC31685}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3413,7 +3425,7 @@
     <col min="12" max="12" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3451,7 +3463,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -3485,11 +3497,8 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3523,11 +3532,8 @@
       <c r="K3" s="3">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3561,11 +3567,8 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -3599,11 +3602,8 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -3637,11 +3637,8 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -3675,11 +3672,8 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -3713,11 +3707,8 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -3751,11 +3742,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -3789,11 +3777,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -3827,11 +3812,8 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -3866,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -3901,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -3936,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -3971,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -4366,22 +4348,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
@@ -5403,7 +5385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86F1981-4AF4-5849-A595-CDD0889FA58D}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
